--- a/Output/Table2.xlsx
+++ b/Output/Table2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -578,21 +578,49 @@
         <v>43916</v>
       </c>
       <c r="C8">
+        <v>0.09217945242613174</v>
+      </c>
+      <c r="D8">
+        <v>0.04955177567938374</v>
+      </c>
+      <c r="E8">
+        <v>-0.004335454964670524</v>
+      </c>
+      <c r="F8">
+        <v>0.05388723064405426</v>
+      </c>
+      <c r="G8">
+        <v>0.07446332850061535</v>
+      </c>
+      <c r="H8">
+        <v>0.9255366714993846</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B9" s="2">
+        <v>43916</v>
+      </c>
+      <c r="C9">
         <v>0.09630539297713012</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.05367771623038212</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-0.001568691807165634</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.05524640803754775</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>0.02761047347365702</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>0.9723895265263429</v>
       </c>
     </row>

--- a/Output/Table2.xlsx
+++ b/Output/Table2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,6 +624,90 @@
         <v>0.9723895265263429</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B10" s="2">
+        <v>43917</v>
+      </c>
+      <c r="C10">
+        <v>0.09852657609196203</v>
+      </c>
+      <c r="D10">
+        <v>0.05589889934521403</v>
+      </c>
+      <c r="E10">
+        <v>-0.001826850209772434</v>
+      </c>
+      <c r="F10">
+        <v>0.05772574955498646</v>
+      </c>
+      <c r="G10">
+        <v>0.03067624615866895</v>
+      </c>
+      <c r="H10">
+        <v>0.9693237538413311</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B11" s="2">
+        <v>43918</v>
+      </c>
+      <c r="C11">
+        <v>0.1035504940538342</v>
+      </c>
+      <c r="D11">
+        <v>0.06092281730708615</v>
+      </c>
+      <c r="E11">
+        <v>-0.001658004816112251</v>
+      </c>
+      <c r="F11">
+        <v>0.0625808221231984</v>
+      </c>
+      <c r="G11">
+        <v>0.02581001078488939</v>
+      </c>
+      <c r="H11">
+        <v>0.9741899892151106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B12" s="2">
+        <v>43919</v>
+      </c>
+      <c r="C12">
+        <v>0.1063320056230004</v>
+      </c>
+      <c r="D12">
+        <v>0.0637043288762524</v>
+      </c>
+      <c r="E12">
+        <v>-0.002275728662407409</v>
+      </c>
+      <c r="F12">
+        <v>0.06598005753865981</v>
+      </c>
+      <c r="G12">
+        <v>0.03334118305668021</v>
+      </c>
+      <c r="H12">
+        <v>0.9666588169433198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Table2.xlsx
+++ b/Output/Table2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,6 +708,62 @@
         <v>0.9666588169433198</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B13" s="2">
+        <v>43920</v>
+      </c>
+      <c r="C13">
+        <v>0.1063067266095513</v>
+      </c>
+      <c r="D13">
+        <v>0.06367904986280328</v>
+      </c>
+      <c r="E13">
+        <v>-0.004991772333422324</v>
+      </c>
+      <c r="F13">
+        <v>0.0686708221962256</v>
+      </c>
+      <c r="G13">
+        <v>0.06776536131120418</v>
+      </c>
+      <c r="H13">
+        <v>0.9322346386887959</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B14" s="2">
+        <v>43920</v>
+      </c>
+      <c r="C14">
+        <v>0.1094216016442426</v>
+      </c>
+      <c r="D14">
+        <v>0.06679392489749463</v>
+      </c>
+      <c r="E14">
+        <v>-0.00289348978170387</v>
+      </c>
+      <c r="F14">
+        <v>0.06968741467919848</v>
+      </c>
+      <c r="G14">
+        <v>0.03986571679142586</v>
+      </c>
+      <c r="H14">
+        <v>0.9601342832085742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Output/Table2.xlsx
+++ b/Output/Table2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
         <v>43899</v>
       </c>
       <c r="C2">
-        <v>0.042627676746748</v>
+        <v>0.04279549268760489</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -438,22 +438,22 @@
         <v>43906</v>
       </c>
       <c r="C3">
-        <v>0.06772288291164498</v>
+        <v>0.06772261264820557</v>
       </c>
       <c r="D3">
-        <v>0.02509520616489698</v>
+        <v>0.02492711996060069</v>
       </c>
       <c r="E3">
-        <v>-0.002390908314790401</v>
+        <v>-0.01047939650004155</v>
       </c>
       <c r="F3">
-        <v>0.02748611447968738</v>
+        <v>0.03540651646064223</v>
       </c>
       <c r="G3">
-        <v>0.08002498546248445</v>
+        <v>0.2283793832111516</v>
       </c>
       <c r="H3">
-        <v>0.9199750145375156</v>
+        <v>0.7716206167888483</v>
       </c>
     </row>
     <row r="4">
@@ -463,25 +463,25 @@
         </is>
       </c>
       <c r="B4" s="2">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="C4">
-        <v>0.0852760907895105</v>
+        <v>0.07653187936772365</v>
       </c>
       <c r="D4">
-        <v>0.0426484140427625</v>
+        <v>0.03373638668011877</v>
       </c>
       <c r="E4">
-        <v>-0.003998914586852555</v>
+        <v>-0.007267482430366687</v>
       </c>
       <c r="F4">
-        <v>0.04664732862961506</v>
+        <v>0.04100386911048545</v>
       </c>
       <c r="G4">
-        <v>0.07895777323030169</v>
+        <v>0.1505547741752415</v>
       </c>
       <c r="H4">
-        <v>0.9210422267696984</v>
+        <v>0.8494452258247586</v>
       </c>
     </row>
     <row r="5">
@@ -491,25 +491,25 @@
         </is>
       </c>
       <c r="B5" s="2">
-        <v>43913</v>
+        <v>43908</v>
       </c>
       <c r="C5">
-        <v>0.08655089758402455</v>
+        <v>0.08049062233732643</v>
       </c>
       <c r="D5">
-        <v>0.04392322083727655</v>
+        <v>0.03769512964972154</v>
       </c>
       <c r="E5">
-        <v>-0.004166890310073887</v>
+        <v>-0.007701953802140163</v>
       </c>
       <c r="F5">
-        <v>0.04809011114735044</v>
+        <v>0.04539708345186169</v>
       </c>
       <c r="G5">
-        <v>0.07973841196129104</v>
+        <v>0.14504884081603</v>
       </c>
       <c r="H5">
-        <v>0.9202615880387089</v>
+        <v>0.8549511591839699</v>
       </c>
     </row>
     <row r="6">
@@ -519,25 +519,25 @@
         </is>
       </c>
       <c r="B6" s="2">
-        <v>43914</v>
+        <v>43909</v>
       </c>
       <c r="C6">
-        <v>0.09303331272346824</v>
+        <v>0.08527609078951051</v>
       </c>
       <c r="D6">
-        <v>0.05040563597672024</v>
+        <v>0.04248059810190562</v>
       </c>
       <c r="E6">
-        <v>-0.0004708524766143639</v>
+        <v>-0.01173544055097419</v>
       </c>
       <c r="F6">
-        <v>0.0508764884533346</v>
+        <v>0.05421603865287981</v>
       </c>
       <c r="G6">
-        <v>0.009169948591042488</v>
+        <v>0.17794052070766</v>
       </c>
       <c r="H6">
-        <v>0.9908300514089574</v>
+        <v>0.8220594792923401</v>
       </c>
     </row>
     <row r="7">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="B7" s="2">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="C7">
-        <v>0.09761243841214959</v>
+        <v>0.09151276883940666</v>
       </c>
       <c r="D7">
-        <v>0.05498476166540159</v>
+        <v>0.04871727615180176</v>
       </c>
       <c r="E7">
-        <v>0.0004924356002890334</v>
+        <v>-0.007802166799712454</v>
       </c>
       <c r="F7">
-        <v>0.05449232606511255</v>
+        <v>0.05651944295151422</v>
       </c>
       <c r="G7">
-        <v>0.008955855865769658</v>
+        <v>0.1212993087375843</v>
       </c>
       <c r="H7">
-        <v>0.9910441441342304</v>
+        <v>0.8787006912624158</v>
       </c>
     </row>
     <row r="8">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="B8" s="2">
-        <v>43916</v>
+        <v>43910</v>
       </c>
       <c r="C8">
-        <v>0.09217945242613174</v>
+        <v>0.07887698887094986</v>
       </c>
       <c r="D8">
-        <v>0.04955177567938374</v>
+        <v>0.03608149618334498</v>
       </c>
       <c r="E8">
-        <v>-0.004335454964670524</v>
+        <v>-0.008945727429587139</v>
       </c>
       <c r="F8">
-        <v>0.05388723064405426</v>
+        <v>0.04502722361293211</v>
       </c>
       <c r="G8">
-        <v>0.07446332850061535</v>
+        <v>0.1657446416546652</v>
       </c>
       <c r="H8">
-        <v>0.9255366714993846</v>
+        <v>0.8342553583453349</v>
       </c>
     </row>
     <row r="9">
@@ -603,25 +603,25 @@
         </is>
       </c>
       <c r="B9" s="2">
-        <v>43916</v>
+        <v>43911</v>
       </c>
       <c r="C9">
-        <v>0.09630539297713012</v>
+        <v>0.08132250730196258</v>
       </c>
       <c r="D9">
-        <v>0.05367771623038212</v>
+        <v>0.03852701461435768</v>
       </c>
       <c r="E9">
-        <v>-0.001568691807165634</v>
+        <v>-0.009197806527930343</v>
       </c>
       <c r="F9">
-        <v>0.05524640803754775</v>
+        <v>0.04772482114228803</v>
       </c>
       <c r="G9">
-        <v>0.02761047347365702</v>
+        <v>0.1615843629218577</v>
       </c>
       <c r="H9">
-        <v>0.9723895265263429</v>
+        <v>0.8384156370781424</v>
       </c>
     </row>
     <row r="10">
@@ -631,25 +631,25 @@
         </is>
       </c>
       <c r="B10" s="2">
-        <v>43917</v>
+        <v>43912</v>
       </c>
       <c r="C10">
-        <v>0.09852657609196203</v>
+        <v>0.08841811769411888</v>
       </c>
       <c r="D10">
-        <v>0.05589889934521403</v>
+        <v>0.04562262500651399</v>
       </c>
       <c r="E10">
-        <v>-0.001826850209772434</v>
+        <v>-0.008760123667387685</v>
       </c>
       <c r="F10">
-        <v>0.05772574955498646</v>
+        <v>0.05438274867390167</v>
       </c>
       <c r="G10">
-        <v>0.03067624615866895</v>
+        <v>0.1387349568141107</v>
       </c>
       <c r="H10">
-        <v>0.9693237538413311</v>
+        <v>0.8612650431858894</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         </is>
       </c>
       <c r="B11" s="2">
-        <v>43918</v>
+        <v>43913</v>
       </c>
       <c r="C11">
-        <v>0.1035504940538342</v>
+        <v>0.08655089758402457</v>
       </c>
       <c r="D11">
-        <v>0.06092281730708615</v>
+        <v>0.04375540489641968</v>
       </c>
       <c r="E11">
-        <v>-0.001658004816112251</v>
+        <v>-0.01134134369417696</v>
       </c>
       <c r="F11">
-        <v>0.0625808221231984</v>
+        <v>0.05509674859059664</v>
       </c>
       <c r="G11">
-        <v>0.02581001078488939</v>
+        <v>0.1707054387649266</v>
       </c>
       <c r="H11">
-        <v>0.9741899892151106</v>
+        <v>0.8292945612350734</v>
       </c>
     </row>
     <row r="12">
@@ -687,25 +687,25 @@
         </is>
       </c>
       <c r="B12" s="2">
-        <v>43919</v>
+        <v>43913</v>
       </c>
       <c r="C12">
-        <v>0.1063320056230004</v>
+        <v>0.0919005225823699</v>
       </c>
       <c r="D12">
-        <v>0.0637043288762524</v>
+        <v>0.04910502989476501</v>
       </c>
       <c r="E12">
-        <v>-0.002275728662407409</v>
+        <v>-0.007595670867927059</v>
       </c>
       <c r="F12">
-        <v>0.06598005753865981</v>
+        <v>0.05670070076269207</v>
       </c>
       <c r="G12">
-        <v>0.03334118305668021</v>
+        <v>0.1181352955896793</v>
       </c>
       <c r="H12">
-        <v>0.9666588169433198</v>
+        <v>0.8818647044103207</v>
       </c>
     </row>
     <row r="13">
@@ -715,25 +715,25 @@
         </is>
       </c>
       <c r="B13" s="2">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="C13">
-        <v>0.1063067266095513</v>
+        <v>0.09303340607688435</v>
       </c>
       <c r="D13">
-        <v>0.06367904986280328</v>
+        <v>0.05023791338927946</v>
       </c>
       <c r="E13">
-        <v>-0.004991772333422324</v>
+        <v>-0.00777813616395686</v>
       </c>
       <c r="F13">
-        <v>0.0686708221962256</v>
+        <v>0.05801604955323631</v>
       </c>
       <c r="G13">
-        <v>0.06776536131120418</v>
+        <v>0.1182192024898683</v>
       </c>
       <c r="H13">
-        <v>0.9322346386887959</v>
+        <v>0.8817807975101317</v>
       </c>
     </row>
     <row r="14">
@@ -743,25 +743,809 @@
         </is>
       </c>
       <c r="B14" s="2">
+        <v>43915</v>
+      </c>
+      <c r="C14">
+        <v>0.09761224933057054</v>
+      </c>
+      <c r="D14">
+        <v>0.05481675664296565</v>
+      </c>
+      <c r="E14">
+        <v>-0.006745914997421222</v>
+      </c>
+      <c r="F14">
+        <v>0.06156267164038688</v>
+      </c>
+      <c r="G14">
+        <v>0.09875647161593339</v>
+      </c>
+      <c r="H14">
+        <v>0.9012435283840665</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B15" s="2">
+        <v>43916</v>
+      </c>
+      <c r="C15">
+        <v>0.09217957736456678</v>
+      </c>
+      <c r="D15">
+        <v>0.04938408467696189</v>
+      </c>
+      <c r="E15">
+        <v>-0.01130594266591633</v>
+      </c>
+      <c r="F15">
+        <v>0.06069002734287823</v>
+      </c>
+      <c r="G15">
+        <v>0.1570357710929552</v>
+      </c>
+      <c r="H15">
+        <v>0.8429642289070448</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B16" s="2">
+        <v>43916</v>
+      </c>
+      <c r="C16">
+        <v>0.09630552684121836</v>
+      </c>
+      <c r="D16">
+        <v>0.05351003415361347</v>
+      </c>
+      <c r="E16">
+        <v>-0.008642120971093972</v>
+      </c>
+      <c r="F16">
+        <v>0.06215215512470745</v>
+      </c>
+      <c r="G16">
+        <v>0.1220737247090307</v>
+      </c>
+      <c r="H16">
+        <v>0.8779262752909695</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B17" s="2">
+        <v>43917</v>
+      </c>
+      <c r="C17">
+        <v>0.09852677163207846</v>
+      </c>
+      <c r="D17">
+        <v>0.05573127894447357</v>
+      </c>
+      <c r="E17">
+        <v>-0.008912367949870338</v>
+      </c>
+      <c r="F17">
+        <v>0.0646436468943439</v>
+      </c>
+      <c r="G17">
+        <v>0.1211643666224444</v>
+      </c>
+      <c r="H17">
+        <v>0.8788356333775556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B18" s="2">
+        <v>43918</v>
+      </c>
+      <c r="C18">
+        <v>0.1040718415549268</v>
+      </c>
+      <c r="D18">
+        <v>0.06127634886732191</v>
+      </c>
+      <c r="E18">
+        <v>-0.008534332691252207</v>
+      </c>
+      <c r="F18">
+        <v>0.06981068155857413</v>
+      </c>
+      <c r="G18">
+        <v>0.1089326841404094</v>
+      </c>
+      <c r="H18">
+        <v>0.8910673158595905</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B19" s="2">
+        <v>43919</v>
+      </c>
+      <c r="C19">
+        <v>0.1068333978350594</v>
+      </c>
+      <c r="D19">
+        <v>0.06403790514745453</v>
+      </c>
+      <c r="E19">
+        <v>-0.009089977724716526</v>
+      </c>
+      <c r="F19">
+        <v>0.07312788287217106</v>
+      </c>
+      <c r="G19">
+        <v>0.1105596479733825</v>
+      </c>
+      <c r="H19">
+        <v>0.8894403520266175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B20" s="2">
         <v>43920</v>
       </c>
-      <c r="C14">
-        <v>0.1094216016442426</v>
-      </c>
-      <c r="D14">
-        <v>0.06679392489749463</v>
-      </c>
-      <c r="E14">
-        <v>-0.00289348978170387</v>
-      </c>
-      <c r="F14">
-        <v>0.06968741467919848</v>
-      </c>
-      <c r="G14">
-        <v>0.03986571679142586</v>
-      </c>
-      <c r="H14">
-        <v>0.9601342832085742</v>
+      <c r="C20">
+        <v>0.1063066138915367</v>
+      </c>
+      <c r="D20">
+        <v>0.06351112120393182</v>
+      </c>
+      <c r="E20">
+        <v>-0.01193157164180236</v>
+      </c>
+      <c r="F20">
+        <v>0.0754426928457342</v>
+      </c>
+      <c r="G20">
+        <v>0.1365570481397796</v>
+      </c>
+      <c r="H20">
+        <v>0.8634429518602205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B21" s="2">
+        <v>43920</v>
+      </c>
+      <c r="C21">
+        <v>0.1094216564513594</v>
+      </c>
+      <c r="D21">
+        <v>0.06662616376375452</v>
+      </c>
+      <c r="E21">
+        <v>-0.01007276215778308</v>
+      </c>
+      <c r="F21">
+        <v>0.07669892592153758</v>
+      </c>
+      <c r="G21">
+        <v>0.1160835104253735</v>
+      </c>
+      <c r="H21">
+        <v>0.8839164895746265</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B22" s="2">
+        <v>43921</v>
+      </c>
+      <c r="C22">
+        <v>0.1160763913934513</v>
+      </c>
+      <c r="D22">
+        <v>0.07328089870584645</v>
+      </c>
+      <c r="E22">
+        <v>-0.008594126959789552</v>
+      </c>
+      <c r="F22">
+        <v>0.081875025665636</v>
+      </c>
+      <c r="G22">
+        <v>0.09499510839205373</v>
+      </c>
+      <c r="H22">
+        <v>0.9050048916079463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B23" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C23">
+        <v>0.1183116074493307</v>
+      </c>
+      <c r="D23">
+        <v>0.07551611476172579</v>
+      </c>
+      <c r="E23">
+        <v>-0.01006122870785813</v>
+      </c>
+      <c r="F23">
+        <v>0.08557734346958391</v>
+      </c>
+      <c r="G23">
+        <v>0.1052005323667017</v>
+      </c>
+      <c r="H23">
+        <v>0.8947994676332983</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B24" s="2">
+        <v>43923</v>
+      </c>
+      <c r="C24">
+        <v>0.1226522598312383</v>
+      </c>
+      <c r="D24">
+        <v>0.07985676714363343</v>
+      </c>
+      <c r="E24">
+        <v>-0.009450035996411895</v>
+      </c>
+      <c r="F24">
+        <v>0.08930680314004531</v>
+      </c>
+      <c r="G24">
+        <v>0.09568993984664002</v>
+      </c>
+      <c r="H24">
+        <v>0.90431006015336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B25" s="2">
+        <v>43923</v>
+      </c>
+      <c r="C25">
+        <v>0.1184248271280611</v>
+      </c>
+      <c r="D25">
+        <v>0.07562933444045622</v>
+      </c>
+      <c r="E25">
+        <v>-0.01198187879081628</v>
+      </c>
+      <c r="F25">
+        <v>0.08761121323127249</v>
+      </c>
+      <c r="G25">
+        <v>0.1203083321096087</v>
+      </c>
+      <c r="H25">
+        <v>0.8796916678903913</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B26" s="2">
+        <v>43924</v>
+      </c>
+      <c r="C26">
+        <v>0.1181602872777506</v>
+      </c>
+      <c r="D26">
+        <v>0.07536479459014572</v>
+      </c>
+      <c r="E26">
+        <v>-0.01195920358542672</v>
+      </c>
+      <c r="F26">
+        <v>0.08732399817557245</v>
+      </c>
+      <c r="G26">
+        <v>0.1204554584592838</v>
+      </c>
+      <c r="H26">
+        <v>0.8795445415407163</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B27" s="2">
+        <v>43925</v>
+      </c>
+      <c r="C27">
+        <v>0.1188512226001171</v>
+      </c>
+      <c r="D27">
+        <v>0.07605572991251217</v>
+      </c>
+      <c r="E27">
+        <v>-0.01201565855867775</v>
+      </c>
+      <c r="F27">
+        <v>0.08807138847118992</v>
+      </c>
+      <c r="G27">
+        <v>0.1200520838135236</v>
+      </c>
+      <c r="H27">
+        <v>0.8799479161864764</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B28" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C28">
+        <v>0.1184472032807328</v>
+      </c>
+      <c r="D28">
+        <v>0.07565171059312789</v>
+      </c>
+      <c r="E28">
+        <v>-0.01289169010586391</v>
+      </c>
+      <c r="F28">
+        <v>0.0885434006989918</v>
+      </c>
+      <c r="G28">
+        <v>0.1270930010864326</v>
+      </c>
+      <c r="H28">
+        <v>0.8729069989135675</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B29" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C29">
+        <v>0.1193307475487244</v>
+      </c>
+      <c r="D29">
+        <v>0.07653525486111951</v>
+      </c>
+      <c r="E29">
+        <v>-0.01201674115314846</v>
+      </c>
+      <c r="F29">
+        <v>0.08855199601426796</v>
+      </c>
+      <c r="G29">
+        <v>0.1194878397761348</v>
+      </c>
+      <c r="H29">
+        <v>0.8805121602238653</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B30" s="2">
+        <v>43927</v>
+      </c>
+      <c r="C30">
+        <v>0.1182901152261737</v>
+      </c>
+      <c r="D30">
+        <v>0.07549462253856876</v>
+      </c>
+      <c r="E30">
+        <v>-0.0125874609386457</v>
+      </c>
+      <c r="F30">
+        <v>0.08808208347721445</v>
+      </c>
+      <c r="G30">
+        <v>0.1250374282677551</v>
+      </c>
+      <c r="H30">
+        <v>0.8749625717322449</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B31" s="2">
+        <v>43928</v>
+      </c>
+      <c r="C31">
+        <v>0.1217573532574061</v>
+      </c>
+      <c r="D31">
+        <v>0.07896186056980117</v>
+      </c>
+      <c r="E31">
+        <v>-0.01213877532354349</v>
+      </c>
+      <c r="F31">
+        <v>0.09110063589334465</v>
+      </c>
+      <c r="G31">
+        <v>0.1175788895002706</v>
+      </c>
+      <c r="H31">
+        <v>0.8824211104997294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B32" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C32">
+        <v>0.1258695347424495</v>
+      </c>
+      <c r="D32">
+        <v>0.08307404205484462</v>
+      </c>
+      <c r="E32">
+        <v>-0.00999570396931908</v>
+      </c>
+      <c r="F32">
+        <v>0.09306974602416368</v>
+      </c>
+      <c r="G32">
+        <v>0.0969840423726006</v>
+      </c>
+      <c r="H32">
+        <v>0.9030159576273994</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B33" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C33">
+        <v>0.122356092604443</v>
+      </c>
+      <c r="D33">
+        <v>0.07956059991683812</v>
+      </c>
+      <c r="E33">
+        <v>-0.01158899952857768</v>
+      </c>
+      <c r="F33">
+        <v>0.09114959944541581</v>
+      </c>
+      <c r="G33">
+        <v>0.1128008328350987</v>
+      </c>
+      <c r="H33">
+        <v>0.8871991671649013</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B34" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C34">
+        <v>0.1243886590084101</v>
+      </c>
+      <c r="D34">
+        <v>0.08159316632080524</v>
+      </c>
+      <c r="E34">
+        <v>-0.010450814751991</v>
+      </c>
+      <c r="F34">
+        <v>0.09204398107279625</v>
+      </c>
+      <c r="G34">
+        <v>0.1019643452908229</v>
+      </c>
+      <c r="H34">
+        <v>0.8980356547091771</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B35" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C35">
+        <v>0.1268083105054177</v>
+      </c>
+      <c r="D35">
+        <v>0.08401281781781284</v>
+      </c>
+      <c r="E35">
+        <v>-0.01043916346306427</v>
+      </c>
+      <c r="F35">
+        <v>0.09445198128087709</v>
+      </c>
+      <c r="G35">
+        <v>0.09952378237980138</v>
+      </c>
+      <c r="H35">
+        <v>0.9004762176201986</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B36" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C36">
+        <v>0.1272850117438769</v>
+      </c>
+      <c r="D36">
+        <v>0.08448951905627203</v>
+      </c>
+      <c r="E36">
+        <v>-0.01009605021245804</v>
+      </c>
+      <c r="F36">
+        <v>0.09458556926873005</v>
+      </c>
+      <c r="G36">
+        <v>0.09644530016343852</v>
+      </c>
+      <c r="H36">
+        <v>0.9035546998365615</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B37" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C37">
+        <v>0.1281204503424168</v>
+      </c>
+      <c r="D37">
+        <v>0.08532495765481188</v>
+      </c>
+      <c r="E37">
+        <v>-0.009688529023479562</v>
+      </c>
+      <c r="F37">
+        <v>0.09501348667829145</v>
+      </c>
+      <c r="G37">
+        <v>0.09253431233908596</v>
+      </c>
+      <c r="H37">
+        <v>0.907465687660914</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B38" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C38">
+        <v>0.1273979942618996</v>
+      </c>
+      <c r="D38">
+        <v>0.08460250157429472</v>
+      </c>
+      <c r="E38">
+        <v>-0.008829469244627762</v>
+      </c>
+      <c r="F38">
+        <v>0.09343197081892248</v>
+      </c>
+      <c r="G38">
+        <v>0.08634211721584109</v>
+      </c>
+      <c r="H38">
+        <v>0.9136578827841589</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B39" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C39">
+        <v>0.1254792814685551</v>
+      </c>
+      <c r="D39">
+        <v>0.0826837887809502</v>
+      </c>
+      <c r="E39">
+        <v>-0.01007294757108519</v>
+      </c>
+      <c r="F39">
+        <v>0.09275673635203538</v>
+      </c>
+      <c r="G39">
+        <v>0.09795758565801011</v>
+      </c>
+      <c r="H39">
+        <v>0.9020424143419898</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B40" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C40">
+        <v>0.125676431583777</v>
+      </c>
+      <c r="D40">
+        <v>0.08288093889617207</v>
+      </c>
+      <c r="E40">
+        <v>-0.01054772225316979</v>
+      </c>
+      <c r="F40">
+        <v>0.09342866114934187</v>
+      </c>
+      <c r="G40">
+        <v>0.1014434423280296</v>
+      </c>
+      <c r="H40">
+        <v>0.8985565576719704</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B41" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C41">
+        <v>0.1267307432342762</v>
+      </c>
+      <c r="D41">
+        <v>0.08393525054667128</v>
+      </c>
+      <c r="E41">
+        <v>-0.009344758275452674</v>
+      </c>
+      <c r="F41">
+        <v>0.09328000882212395</v>
+      </c>
+      <c r="G41">
+        <v>0.0910575345478503</v>
+      </c>
+      <c r="H41">
+        <v>0.9089424654521497</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B42" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C42">
+        <v>0.1272752828730058</v>
+      </c>
+      <c r="D42">
+        <v>0.08447979018540094</v>
+      </c>
+      <c r="E42">
+        <v>-0.008995464874863166</v>
+      </c>
+      <c r="F42">
+        <v>0.09347525506026412</v>
+      </c>
+      <c r="G42">
+        <v>0.08778570971842556</v>
+      </c>
+      <c r="H42">
+        <v>0.9122142902815745</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Table2.xlsx
+++ b/Output/Table2.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>43943</v>
       </c>
       <c r="D2">
-        <v>0.02226482139517487</v>
+        <v>0.02225547035720965</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -456,19 +456,19 @@
         <v>0.02290025071633238</v>
       </c>
       <c r="E3">
-        <v>-0.0006354293211575136</v>
+        <v>-0.0006447803591227291</v>
       </c>
       <c r="F3">
-        <v>-0.001599957073551972</v>
+        <v>-0.001919317760321115</v>
       </c>
       <c r="G3">
-        <v>0.0009645277523944575</v>
+        <v>0.001274537401198386</v>
       </c>
       <c r="H3">
-        <v>0.6238902478050358</v>
+        <v>0.6009407638284965</v>
       </c>
       <c r="I3">
-        <v>0.3761097521949643</v>
+        <v>0.3990592361715036</v>
       </c>
     </row>
     <row r="4">
@@ -489,19 +489,19 @@
         <v>0.03807511017180802</v>
       </c>
       <c r="E4">
-        <v>-0.01581028877663316</v>
+        <v>-0.01581963981459837</v>
       </c>
       <c r="F4">
-        <v>-0.01469419423150339</v>
+        <v>-0.01392785055554586</v>
       </c>
       <c r="G4">
-        <v>-0.00111609454512977</v>
+        <v>-0.00189178925905251</v>
       </c>
       <c r="H4">
-        <v>0.929407074032746</v>
+        <v>0.8804151496984927</v>
       </c>
       <c r="I4">
-        <v>0.07059292596725392</v>
+        <v>0.1195848503015073</v>
       </c>
     </row>
     <row r="5">
@@ -519,61 +519,61 @@
         <v>43943</v>
       </c>
       <c r="D5">
-        <v>0.05598346774242222</v>
+        <v>0.0559832330827703</v>
       </c>
       <c r="E5">
-        <v>-0.03371864634724735</v>
+        <v>-0.03372776272556065</v>
       </c>
       <c r="F5">
-        <v>-0.01441200835982098</v>
+        <v>-0.01446683862051781</v>
       </c>
       <c r="G5">
-        <v>-0.01930663798742638</v>
+        <v>-0.01926092410504284</v>
       </c>
       <c r="H5">
-        <v>0.4274195414430542</v>
+        <v>0.4289296843740568</v>
       </c>
       <c r="I5">
-        <v>0.5725804585569458</v>
+        <v>0.5710703156259431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>All</t>
+          <t>NYC</t>
         </is>
       </c>
       <c r="C6" s="2">
         <v>43943</v>
       </c>
       <c r="D6">
-        <v>0.1040122728013148</v>
+        <v>0.07258978752642781</v>
       </c>
       <c r="E6">
-        <v>-0.08174745140613993</v>
+        <v>-0.05033431716921816</v>
       </c>
       <c r="F6">
-        <v>-0.05832583424431657</v>
+        <v>-0.01322810364166369</v>
       </c>
       <c r="G6">
-        <v>-0.02342161716182336</v>
+        <v>-0.03710621352755447</v>
       </c>
       <c r="H6">
-        <v>0.7134881056357409</v>
+        <v>0.2628048692344893</v>
       </c>
       <c r="I6">
-        <v>0.286511894364259</v>
+        <v>0.7371951307655107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -585,22 +585,55 @@
         <v>43943</v>
       </c>
       <c r="D7">
-        <v>0.1300063316640764</v>
+        <v>0.1040126934054379</v>
       </c>
       <c r="E7">
-        <v>-0.1077415102689016</v>
+        <v>-0.08175722304822823</v>
       </c>
       <c r="F7">
-        <v>-0.07287847691095452</v>
+        <v>-0.0565771448318796</v>
       </c>
       <c r="G7">
-        <v>-0.03486303335794706</v>
+        <v>-0.02518007821634864</v>
       </c>
       <c r="H7">
-        <v>0.676419670831272</v>
+        <v>0.6920140230118258</v>
       </c>
       <c r="I7">
-        <v>0.323580329168728</v>
+        <v>0.3079859769881741</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="C8" s="2">
+        <v>43943</v>
+      </c>
+      <c r="D8">
+        <v>0.1300061819994451</v>
+      </c>
+      <c r="E8">
+        <v>-0.1077507116422355</v>
+      </c>
+      <c r="F8">
+        <v>-0.0707498030982413</v>
+      </c>
+      <c r="G8">
+        <v>-0.03700090854399416</v>
+      </c>
+      <c r="H8">
+        <v>0.6566063650062172</v>
+      </c>
+      <c r="I8">
+        <v>0.343393634993783</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Table2.xlsx
+++ b/Output/Table2.xlsx
@@ -414,7 +414,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SouthKorea</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -423,10 +423,10 @@
         </is>
       </c>
       <c r="C2" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D2">
-        <v>0.02225547035720965</v>
+        <v>0.02203125</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -453,22 +453,22 @@
         <v>43872</v>
       </c>
       <c r="D3">
-        <v>0.02290025071633238</v>
+        <v>0.02290248925501433</v>
       </c>
       <c r="E3">
-        <v>-0.0006447803591227291</v>
+        <v>-0.0008712392550143285</v>
       </c>
       <c r="F3">
-        <v>-0.001919317760321115</v>
+        <v>-0.001774697761608536</v>
       </c>
       <c r="G3">
-        <v>0.001274537401198386</v>
+        <v>0.0009034585065942095</v>
       </c>
       <c r="H3">
-        <v>0.6009407638284965</v>
+        <v>0.662656538260741</v>
       </c>
       <c r="I3">
-        <v>0.3990592361715036</v>
+        <v>0.337343461739259</v>
       </c>
     </row>
     <row r="4">
@@ -483,25 +483,25 @@
         </is>
       </c>
       <c r="C4" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D4">
-        <v>0.03807511017180802</v>
+        <v>0.04641945524453683</v>
       </c>
       <c r="E4">
-        <v>-0.01581963981459837</v>
+        <v>-0.02438820524453683</v>
       </c>
       <c r="F4">
-        <v>-0.01392785055554586</v>
+        <v>-0.01820958489448707</v>
       </c>
       <c r="G4">
-        <v>-0.00189178925905251</v>
+        <v>-0.00617862035004976</v>
       </c>
       <c r="H4">
-        <v>0.8804151496984927</v>
+        <v>0.7466553898453096</v>
       </c>
       <c r="I4">
-        <v>0.1195848503015073</v>
+        <v>0.2533446101546905</v>
       </c>
     </row>
     <row r="5">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C5" s="2">
-        <v>43943</v>
+        <v>44009</v>
       </c>
       <c r="D5">
-        <v>0.0559832330827703</v>
+        <v>0.04752702796222197</v>
       </c>
       <c r="E5">
-        <v>-0.03372776272556065</v>
+        <v>-0.02549577796222197</v>
       </c>
       <c r="F5">
-        <v>-0.01446683862051781</v>
+        <v>-0.01110534922334279</v>
       </c>
       <c r="G5">
-        <v>-0.01926092410504284</v>
+        <v>-0.01439042873887918</v>
       </c>
       <c r="H5">
-        <v>0.4289296843740568</v>
+        <v>0.4355760094788241</v>
       </c>
       <c r="I5">
-        <v>0.5710703156259431</v>
+        <v>0.5644239905211759</v>
       </c>
     </row>
     <row r="6">
@@ -549,25 +549,25 @@
         </is>
       </c>
       <c r="C6" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D6">
-        <v>0.07258978752642781</v>
+        <v>0.08719684220304529</v>
       </c>
       <c r="E6">
-        <v>-0.05033431716921816</v>
+        <v>-0.06516559220304528</v>
       </c>
       <c r="F6">
-        <v>-0.01322810364166369</v>
+        <v>-0.01526558684163744</v>
       </c>
       <c r="G6">
-        <v>-0.03710621352755447</v>
+        <v>-0.04990000536140785</v>
       </c>
       <c r="H6">
-        <v>0.2628048692344893</v>
+        <v>0.2342583919758203</v>
       </c>
       <c r="I6">
-        <v>0.7371951307655107</v>
+        <v>0.7657416080241797</v>
       </c>
     </row>
     <row r="7">
@@ -582,25 +582,25 @@
         </is>
       </c>
       <c r="C7" s="2">
-        <v>43943</v>
+        <v>43972</v>
       </c>
       <c r="D7">
-        <v>0.1040126934054379</v>
+        <v>0.121913536873179</v>
       </c>
       <c r="E7">
-        <v>-0.08175722304822823</v>
+        <v>-0.09988228687317896</v>
       </c>
       <c r="F7">
-        <v>-0.0565771448318796</v>
+        <v>-0.06997472192545481</v>
       </c>
       <c r="G7">
-        <v>-0.02518007821634864</v>
+        <v>-0.02990756494772415</v>
       </c>
       <c r="H7">
-        <v>0.6920140230118258</v>
+        <v>0.7005718843252164</v>
       </c>
       <c r="I7">
-        <v>0.3079859769881741</v>
+        <v>0.2994281156747837</v>
       </c>
     </row>
     <row r="8">
@@ -615,25 +615,25 @@
         </is>
       </c>
       <c r="C8" s="2">
-        <v>43943</v>
+        <v>44012</v>
       </c>
       <c r="D8">
-        <v>0.1300061819994451</v>
+        <v>0.1403006799609075</v>
       </c>
       <c r="E8">
-        <v>-0.1077507116422355</v>
+        <v>-0.1182694299609075</v>
       </c>
       <c r="F8">
-        <v>-0.0707498030982413</v>
+        <v>-0.07717615170773866</v>
       </c>
       <c r="G8">
-        <v>-0.03700090854399416</v>
+        <v>-0.04109327825316879</v>
       </c>
       <c r="H8">
-        <v>0.6566063650062172</v>
+        <v>0.6525452243512826</v>
       </c>
       <c r="I8">
-        <v>0.343393634993783</v>
+        <v>0.3474547756487174</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Table2.xlsx
+++ b/Output/Table2.xlsx
@@ -486,22 +486,22 @@
         <v>44012</v>
       </c>
       <c r="D4">
-        <v>0.04641945524453683</v>
+        <v>0.04642482199629812</v>
       </c>
       <c r="E4">
-        <v>-0.02438820524453683</v>
+        <v>-0.02439357199629812</v>
       </c>
       <c r="F4">
-        <v>-0.01820958489448707</v>
+        <v>-0.0182154803462221</v>
       </c>
       <c r="G4">
-        <v>-0.00617862035004976</v>
+        <v>-0.006178091650076023</v>
       </c>
       <c r="H4">
-        <v>0.7466553898453096</v>
+        <v>0.746732801124264</v>
       </c>
       <c r="I4">
-        <v>0.2533446101546905</v>
+        <v>0.2532671988757361</v>
       </c>
     </row>
     <row r="5">
@@ -519,22 +519,22 @@
         <v>44009</v>
       </c>
       <c r="D5">
-        <v>0.04752702796222197</v>
+        <v>0.04790879040367425</v>
       </c>
       <c r="E5">
-        <v>-0.02549577796222197</v>
+        <v>-0.02587754040367425</v>
       </c>
       <c r="F5">
-        <v>-0.01110534922334279</v>
+        <v>-0.01114628975422188</v>
       </c>
       <c r="G5">
-        <v>-0.01439042873887918</v>
+        <v>-0.01473125064945237</v>
       </c>
       <c r="H5">
-        <v>0.4355760094788241</v>
+        <v>0.4307321940318278</v>
       </c>
       <c r="I5">
-        <v>0.5644239905211759</v>
+        <v>0.5692678059681723</v>
       </c>
     </row>
     <row r="6">
